--- a/src/models/baselines/RF/results/synthetic/centrality/in-degree/metrics.xlsx
+++ b/src/models/baselines/RF/results/synthetic/centrality/in-degree/metrics.xlsx
@@ -504,7 +504,7 @@
         <v>0.9949494949494949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9974747474747474</v>
+        <v>0.9999234771962046</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>0.9898989898989899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9950834098561371</v>
+        <v>0.9955234159779615</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9999234771962046</v>
       </c>
     </row>
     <row r="8">
@@ -546,7 +546,7 @@
         <v>0.9949494949494949</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999617385981022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -554,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9848484848484849</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9848484848484849</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9962121212121212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9954545454545455</v>
+        <v>0.9964646464646464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9954545454545455</v>
+        <v>0.9964646464646464</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9988732017141109</v>
+        <v>0.999537037037037</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005022368313190665</v>
+        <v>0.003408831099548245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005022368313190665</v>
+        <v>0.003408831099548245</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001891575029637509</v>
+        <v>0.001410601484577016</v>
       </c>
     </row>
   </sheetData>
